--- a/diets/utils/meals.xlsx
+++ b/diets/utils/meals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\TDP\Backend\diet_and_control\diets\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\diet_and_control\diets\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC42AD8F-1BC3-4581-953E-980CC720579F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2753B5C2-425C-4549-8E53-C43446D24CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="3390" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composicion" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10965" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11441" uniqueCount="2963">
   <si>
     <t>Energía</t>
   </si>
@@ -7682,12 +7682,1440 @@
   <si>
     <t>receta</t>
   </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158400</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158401</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158402</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158403</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158404</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158405</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158406</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158407</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158408</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158409</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158410</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158411</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158412</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158413</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158414</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158415</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158416</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158417</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158418</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158419</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158420</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158421</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158422</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158423</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158424</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158425</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158426</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158427</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158428</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158429</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158430</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158431</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158432</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158433</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158434</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158435</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158436</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158437</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158438</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158439</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158440</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158441</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158442</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158443</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158444</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158445</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158446</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158447</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158448</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158449</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158450</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158451</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158452</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158453</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158454</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158455</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158456</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158457</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158458</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158459</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158460</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158461</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158462</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158463</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158464</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158465</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158466</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158467</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158468</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158469</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158470</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158471</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158472</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158473</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158474</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158475</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158476</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158477</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158478</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158479</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158480</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158481</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158482</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158483</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158484</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158485</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158486</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158487</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158488</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158489</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158490</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158491</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158492</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158493</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158494</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158495</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158496</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158497</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158498</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158499</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158500</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158501</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158502</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158503</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158504</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158505</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158506</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158507</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158508</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158509</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158510</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158511</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158512</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158513</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158514</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158515</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158516</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158517</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158518</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158519</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158520</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158521</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158522</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158523</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158524</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158525</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158526</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158527</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158528</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158529</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158530</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158531</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158532</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158533</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158534</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158535</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158536</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158537</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158538</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158539</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158540</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158541</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158542</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158543</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158544</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158545</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158546</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158547</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158548</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158549</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158550</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158551</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158552</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158553</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158554</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158555</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158556</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158557</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158558</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158559</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158560</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158561</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158562</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158563</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158564</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158565</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158566</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158567</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158568</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158569</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158570</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158571</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158572</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158573</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158574</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158575</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158576</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158577</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158578</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158579</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158580</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158581</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158582</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158583</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158584</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158585</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158586</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158587</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158588</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158589</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158590</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158591</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158592</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158593</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158594</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158595</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158596</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158597</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158598</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158599</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158600</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158601</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158602</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158603</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158604</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158605</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158606</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158607</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158608</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158609</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158610</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158611</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158612</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158613</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158614</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158615</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158616</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158617</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158618</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158619</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158620</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158621</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158622</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158623</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158624</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158625</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158626</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158627</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158628</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158629</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158630</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158631</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158632</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158633</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158634</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158635</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158636</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158637</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158638</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158639</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158640</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158641</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158642</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158643</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158644</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158645</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158646</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158647</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158648</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158649</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158650</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158651</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158652</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158653</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158654</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158655</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158656</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158657</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158658</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158659</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158660</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158661</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158662</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158663</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158664</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158665</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158666</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158667</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158668</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158669</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158670</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158671</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158672</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158673</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158674</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158675</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158676</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158677</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158678</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158679</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158680</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158681</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158682</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158683</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158684</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158685</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158686</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158687</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158688</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158689</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158690</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158691</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158692</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158693</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158694</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158695</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158696</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158697</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158698</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158699</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158700</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158701</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158702</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158703</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158704</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158705</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158706</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158707</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158708</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158709</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158710</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158711</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158712</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158713</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158714</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158715</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158716</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158717</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158718</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158719</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158720</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158721</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158722</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158723</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158724</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158725</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158726</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158727</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158728</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158729</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158730</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158731</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158732</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158733</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158734</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158735</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158736</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158737</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158738</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158739</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158741</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158742</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158743</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158744</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158745</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158746</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158747</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158748</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158749</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158750</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158751</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158752</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158753</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158754</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158755</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158756</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158757</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158758</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158759</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158760</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158761</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158762</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158763</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158764</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158765</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158766</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158767</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158768</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158769</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158770</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158771</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158772</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158773</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158774</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158775</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158776</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158777</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158778</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158779</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158780</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158781</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158782</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158783</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158784</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158785</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158786</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158787</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158788</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158789</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158790</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158791</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158792</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158793</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158794</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158795</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158796</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158797</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158798</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158799</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158800</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158801</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158802</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158803</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158804</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158805</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158806</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158807</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158808</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158809</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158810</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158811</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158812</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158813</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158814</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158815</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158816</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158817</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158818</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158819</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158820</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158821</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158822</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158823</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158824</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158825</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158826</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158827</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158828</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158829</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158830</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158831</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158832</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158833</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158834</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158835</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158836</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158837</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158838</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158839</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158840</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158841</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158842</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158843</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158844</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158845</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158846</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158847</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158848</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158849</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158850</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158851</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158852</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158853</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158854</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158855</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158856</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158857</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158858</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158859</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158860</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158861</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158862</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158863</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158864</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158865</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158866</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158867</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158868</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158869</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158870</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158871</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158872</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158873</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158874</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7854,6 +9282,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVuSans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -8153,7 +9595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -8196,8 +9638,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8206,8 +9649,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -8239,6 +9683,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80303,9 +81748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M476"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="O480" sqref="O480"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -80317,12 +81764,12 @@
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>2480</v>
       </c>
@@ -80362,8 +81809,11 @@
       <c r="M1" t="s">
         <v>2483</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1895</v>
       </c>
@@ -80400,8 +81850,11 @@
       <c r="M2" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="8" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1896</v>
       </c>
@@ -80438,8 +81891,11 @@
       <c r="M3" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="8" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1897</v>
       </c>
@@ -80476,8 +81932,11 @@
       <c r="M4" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="8" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>1898</v>
       </c>
@@ -80514,8 +81973,11 @@
       <c r="M5" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="8" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>1899</v>
       </c>
@@ -80552,8 +82014,11 @@
       <c r="M6" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="8" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>1900</v>
       </c>
@@ -80590,8 +82055,11 @@
       <c r="M7" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="8" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>1901</v>
       </c>
@@ -80628,8 +82096,11 @@
       <c r="M8" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="8" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>1902</v>
       </c>
@@ -80666,8 +82137,11 @@
       <c r="M9" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="8" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>1903</v>
       </c>
@@ -80704,8 +82178,11 @@
       <c r="M10" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="8" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>1904</v>
       </c>
@@ -80742,8 +82219,11 @@
       <c r="M11" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="8" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>1905</v>
       </c>
@@ -80780,8 +82260,11 @@
       <c r="M12" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="8" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>1906</v>
       </c>
@@ -80818,8 +82301,11 @@
       <c r="M13" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="8" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>1907</v>
       </c>
@@ -80856,8 +82342,11 @@
       <c r="M14" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="8" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>1908</v>
       </c>
@@ -80894,8 +82383,11 @@
       <c r="M15" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="8" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>1909</v>
       </c>
@@ -80932,8 +82424,11 @@
       <c r="M16" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="8" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>1910</v>
       </c>
@@ -80970,8 +82465,11 @@
       <c r="M17" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="8" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>1911</v>
       </c>
@@ -81008,8 +82506,11 @@
       <c r="M18" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="8" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>1912</v>
       </c>
@@ -81046,8 +82547,11 @@
       <c r="M19" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="8" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>1913</v>
       </c>
@@ -81084,8 +82588,11 @@
       <c r="M20" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="8" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>1914</v>
       </c>
@@ -81122,8 +82629,11 @@
       <c r="M21" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="8" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>1915</v>
       </c>
@@ -81160,8 +82670,11 @@
       <c r="M22" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="8" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>1916</v>
       </c>
@@ -81198,8 +82711,11 @@
       <c r="M23" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="8" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>1917</v>
       </c>
@@ -81236,8 +82752,11 @@
       <c r="M24" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="8" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>1918</v>
       </c>
@@ -81274,8 +82793,11 @@
       <c r="M25" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="8" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>1919</v>
       </c>
@@ -81312,8 +82834,11 @@
       <c r="M26" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="8" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>1920</v>
       </c>
@@ -81350,8 +82875,11 @@
       <c r="M27" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="8" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>1921</v>
       </c>
@@ -81388,8 +82916,11 @@
       <c r="M28" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="8" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>1922</v>
       </c>
@@ -81426,8 +82957,11 @@
       <c r="M29" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="8" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>1923</v>
       </c>
@@ -81464,8 +82998,11 @@
       <c r="M30" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="8" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>1924</v>
       </c>
@@ -81502,8 +83039,11 @@
       <c r="M31" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="8" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>1925</v>
       </c>
@@ -81540,8 +83080,11 @@
       <c r="M32" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="8" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>1926</v>
       </c>
@@ -81578,8 +83121,11 @@
       <c r="M33" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="8" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>1927</v>
       </c>
@@ -81616,8 +83162,11 @@
       <c r="M34" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="8" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>1928</v>
       </c>
@@ -81654,8 +83203,11 @@
       <c r="M35" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="8" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>1929</v>
       </c>
@@ -81692,8 +83244,11 @@
       <c r="M36" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="8" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>1930</v>
       </c>
@@ -81730,8 +83285,11 @@
       <c r="M37" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="8" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>1931</v>
       </c>
@@ -81768,8 +83326,11 @@
       <c r="M38" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="8" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>1932</v>
       </c>
@@ -81806,8 +83367,11 @@
       <c r="M39" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="8" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>1933</v>
       </c>
@@ -81844,8 +83408,11 @@
       <c r="M40" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="8" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>1934</v>
       </c>
@@ -81882,8 +83449,11 @@
       <c r="M41" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="8" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>1935</v>
       </c>
@@ -81920,8 +83490,11 @@
       <c r="M42" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="8" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>1936</v>
       </c>
@@ -81958,8 +83531,11 @@
       <c r="M43" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="8" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>1937</v>
       </c>
@@ -81996,8 +83572,11 @@
       <c r="M44" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="8" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>1938</v>
       </c>
@@ -82034,8 +83613,11 @@
       <c r="M45" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="8" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>1939</v>
       </c>
@@ -82072,8 +83654,11 @@
       <c r="M46" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="8" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>1940</v>
       </c>
@@ -82110,8 +83695,11 @@
       <c r="M47" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="8" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>1941</v>
       </c>
@@ -82148,8 +83736,11 @@
       <c r="M48" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="8" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>1942</v>
       </c>
@@ -82186,8 +83777,11 @@
       <c r="M49" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="8" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>1943</v>
       </c>
@@ -82224,8 +83818,11 @@
       <c r="M50" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="8" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>1944</v>
       </c>
@@ -82262,8 +83859,11 @@
       <c r="M51" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="8" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>1945</v>
       </c>
@@ -82300,8 +83900,11 @@
       <c r="M52" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="8" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>1946</v>
       </c>
@@ -82338,8 +83941,11 @@
       <c r="M53" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="8" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>1947</v>
       </c>
@@ -82376,8 +83982,11 @@
       <c r="M54" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="8" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>1948</v>
       </c>
@@ -82414,8 +84023,11 @@
       <c r="M55" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="8" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>1949</v>
       </c>
@@ -82452,8 +84064,11 @@
       <c r="M56" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="8" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>1950</v>
       </c>
@@ -82490,8 +84105,11 @@
       <c r="M57" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="8" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>1951</v>
       </c>
@@ -82528,8 +84146,11 @@
       <c r="M58" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="8" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>1952</v>
       </c>
@@ -82566,8 +84187,11 @@
       <c r="M59" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="8" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>1953</v>
       </c>
@@ -82604,8 +84228,11 @@
       <c r="M60" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="8" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>1954</v>
       </c>
@@ -82642,8 +84269,11 @@
       <c r="M61" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="8" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>1955</v>
       </c>
@@ -82680,8 +84310,11 @@
       <c r="M62" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="8" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>1956</v>
       </c>
@@ -82718,8 +84351,11 @@
       <c r="M63" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="8" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>1957</v>
       </c>
@@ -82756,8 +84392,11 @@
       <c r="M64" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="8" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>1958</v>
       </c>
@@ -82794,8 +84433,11 @@
       <c r="M65" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="8" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>1959</v>
       </c>
@@ -82832,8 +84474,11 @@
       <c r="M66" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="8" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>1960</v>
       </c>
@@ -82870,8 +84515,11 @@
       <c r="M67" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="8" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>1961</v>
       </c>
@@ -82908,8 +84556,11 @@
       <c r="M68" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="8" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>1962</v>
       </c>
@@ -82946,8 +84597,11 @@
       <c r="M69" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="8" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>1963</v>
       </c>
@@ -82984,8 +84638,11 @@
       <c r="M70" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="8" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>1964</v>
       </c>
@@ -83022,8 +84679,11 @@
       <c r="M71" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="8" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>1965</v>
       </c>
@@ -83060,8 +84720,11 @@
       <c r="M72" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="8" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>1966</v>
       </c>
@@ -83098,8 +84761,11 @@
       <c r="M73" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="8" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>1967</v>
       </c>
@@ -83136,8 +84802,11 @@
       <c r="M74" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="8" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>1968</v>
       </c>
@@ -83174,8 +84843,11 @@
       <c r="M75" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="8" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>1969</v>
       </c>
@@ -83212,8 +84884,11 @@
       <c r="M76" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="8" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>1970</v>
       </c>
@@ -83250,8 +84925,11 @@
       <c r="M77" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="8" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>1971</v>
       </c>
@@ -83288,8 +84966,11 @@
       <c r="M78" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="8" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>1972</v>
       </c>
@@ -83326,8 +85007,11 @@
       <c r="M79" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="8" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>1973</v>
       </c>
@@ -83364,8 +85048,11 @@
       <c r="M80" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="8" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>1974</v>
       </c>
@@ -83402,8 +85089,11 @@
       <c r="M81" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="8" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>1975</v>
       </c>
@@ -83440,8 +85130,11 @@
       <c r="M82" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="8" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>1976</v>
       </c>
@@ -83478,8 +85171,11 @@
       <c r="M83" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="8" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>1977</v>
       </c>
@@ -83516,8 +85212,11 @@
       <c r="M84" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="8" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>1978</v>
       </c>
@@ -83554,8 +85253,11 @@
       <c r="M85" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="8" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>1979</v>
       </c>
@@ -83592,8 +85294,11 @@
       <c r="M86" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="8" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>1980</v>
       </c>
@@ -83630,8 +85335,11 @@
       <c r="M87" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="8" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>1981</v>
       </c>
@@ -83668,8 +85376,11 @@
       <c r="M88" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="8" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>1982</v>
       </c>
@@ -83706,8 +85417,11 @@
       <c r="M89" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="8" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>1983</v>
       </c>
@@ -83744,8 +85458,11 @@
       <c r="M90" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="8" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>1984</v>
       </c>
@@ -83782,8 +85499,11 @@
       <c r="M91" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="8" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>1985</v>
       </c>
@@ -83820,8 +85540,11 @@
       <c r="M92" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="8" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>1986</v>
       </c>
@@ -83858,8 +85581,11 @@
       <c r="M93" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="8" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>1987</v>
       </c>
@@ -83896,8 +85622,11 @@
       <c r="M94" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="8" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>1988</v>
       </c>
@@ -83934,8 +85663,11 @@
       <c r="M95" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="8" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>1989</v>
       </c>
@@ -83972,8 +85704,11 @@
       <c r="M96" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="8" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>1990</v>
       </c>
@@ -84010,8 +85745,11 @@
       <c r="M97" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="8" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>1991</v>
       </c>
@@ -84048,8 +85786,11 @@
       <c r="M98" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="8" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>1992</v>
       </c>
@@ -84086,8 +85827,11 @@
       <c r="M99" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="8" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>1993</v>
       </c>
@@ -84124,8 +85868,11 @@
       <c r="M100" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="8" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>1994</v>
       </c>
@@ -84162,8 +85909,11 @@
       <c r="M101" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="8" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>1995</v>
       </c>
@@ -84200,8 +85950,11 @@
       <c r="M102" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="8" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>1996</v>
       </c>
@@ -84238,8 +85991,11 @@
       <c r="M103" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="8" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>1997</v>
       </c>
@@ -84276,8 +86032,11 @@
       <c r="M104" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="8" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>1998</v>
       </c>
@@ -84314,8 +86073,11 @@
       <c r="M105" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="8" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>1999</v>
       </c>
@@ -84352,8 +86114,11 @@
       <c r="M106" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="8" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>2000</v>
       </c>
@@ -84390,8 +86155,11 @@
       <c r="M107" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="8" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>2001</v>
       </c>
@@ -84428,8 +86196,11 @@
       <c r="M108" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="8" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>2002</v>
       </c>
@@ -84466,8 +86237,11 @@
       <c r="M109" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="8" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>2003</v>
       </c>
@@ -84504,8 +86278,11 @@
       <c r="M110" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="8" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>2004</v>
       </c>
@@ -84542,8 +86319,11 @@
       <c r="M111" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="8" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>2005</v>
       </c>
@@ -84580,8 +86360,11 @@
       <c r="M112" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="8" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>2006</v>
       </c>
@@ -84618,8 +86401,11 @@
       <c r="M113" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="8" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>2007</v>
       </c>
@@ -84656,8 +86442,11 @@
       <c r="M114" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="8" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>2008</v>
       </c>
@@ -84694,8 +86483,11 @@
       <c r="M115" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="8" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>2009</v>
       </c>
@@ -84732,8 +86524,11 @@
       <c r="M116" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>2010</v>
       </c>
@@ -84770,8 +86565,11 @@
       <c r="M117" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>2011</v>
       </c>
@@ -84808,8 +86606,11 @@
       <c r="M118" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>2012</v>
       </c>
@@ -84846,8 +86647,11 @@
       <c r="M119" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>2013</v>
       </c>
@@ -84884,8 +86688,11 @@
       <c r="M120" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>2014</v>
       </c>
@@ -84922,8 +86729,11 @@
       <c r="M121" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>2015</v>
       </c>
@@ -84960,8 +86770,11 @@
       <c r="M122" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>2016</v>
       </c>
@@ -84998,8 +86811,11 @@
       <c r="M123" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>2017</v>
       </c>
@@ -85036,8 +86852,11 @@
       <c r="M124" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>2018</v>
       </c>
@@ -85074,8 +86893,11 @@
       <c r="M125" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="8" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>2019</v>
       </c>
@@ -85112,8 +86934,11 @@
       <c r="M126" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="8" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>2020</v>
       </c>
@@ -85150,8 +86975,11 @@
       <c r="M127" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="8" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>2021</v>
       </c>
@@ -85188,8 +87016,11 @@
       <c r="M128" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="8" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>2022</v>
       </c>
@@ -85226,8 +87057,11 @@
       <c r="M129" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="8" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>2023</v>
       </c>
@@ -85264,8 +87098,11 @@
       <c r="M130" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="8" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>2024</v>
       </c>
@@ -85302,8 +87139,11 @@
       <c r="M131" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="8" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>2025</v>
       </c>
@@ -85340,8 +87180,11 @@
       <c r="M132" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="8" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>2026</v>
       </c>
@@ -85378,8 +87221,11 @@
       <c r="M133" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="8" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>2027</v>
       </c>
@@ -85416,8 +87262,11 @@
       <c r="M134" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>2028</v>
       </c>
@@ -85454,8 +87303,11 @@
       <c r="M135" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="8" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>2029</v>
       </c>
@@ -85492,8 +87344,11 @@
       <c r="M136" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="8" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>2030</v>
       </c>
@@ -85530,8 +87385,11 @@
       <c r="M137" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="8" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>2031</v>
       </c>
@@ -85568,8 +87426,11 @@
       <c r="M138" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="8" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>2032</v>
       </c>
@@ -85606,8 +87467,11 @@
       <c r="M139" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="8" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>2033</v>
       </c>
@@ -85644,8 +87508,11 @@
       <c r="M140" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="8" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>2370</v>
       </c>
@@ -85682,8 +87549,11 @@
       <c r="M141" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="8" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>2034</v>
       </c>
@@ -85720,8 +87590,11 @@
       <c r="M142" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="8" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>2035</v>
       </c>
@@ -85758,8 +87631,11 @@
       <c r="M143" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="8" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>2371</v>
       </c>
@@ -85796,8 +87672,11 @@
       <c r="M144" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="8" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>2379</v>
       </c>
@@ -85834,8 +87713,11 @@
       <c r="M145" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="8" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>2380</v>
       </c>
@@ -85872,8 +87754,11 @@
       <c r="M146" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="8" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>2381</v>
       </c>
@@ -85910,8 +87795,11 @@
       <c r="M147" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="8" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>2036</v>
       </c>
@@ -85948,8 +87836,11 @@
       <c r="M148" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="8" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>2372</v>
       </c>
@@ -85986,8 +87877,11 @@
       <c r="M149" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="8" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>2373</v>
       </c>
@@ -86024,8 +87918,11 @@
       <c r="M150" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" s="8" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>2374</v>
       </c>
@@ -86062,8 +87959,11 @@
       <c r="M151" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>2375</v>
       </c>
@@ -86100,8 +88000,11 @@
       <c r="M152" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>2376</v>
       </c>
@@ -86138,8 +88041,11 @@
       <c r="M153" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" s="8" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>2037</v>
       </c>
@@ -86176,8 +88082,11 @@
       <c r="M154" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" s="8" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>2377</v>
       </c>
@@ -86214,8 +88123,11 @@
       <c r="M155" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" s="8" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>2378</v>
       </c>
@@ -86252,8 +88164,11 @@
       <c r="M156" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156" s="8" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>2038</v>
       </c>
@@ -86290,8 +88205,11 @@
       <c r="M157" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="8" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>2039</v>
       </c>
@@ -86328,8 +88246,11 @@
       <c r="M158" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158" s="8" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>2040</v>
       </c>
@@ -86366,8 +88287,11 @@
       <c r="M159" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159" s="8" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>2041</v>
       </c>
@@ -86404,8 +88328,11 @@
       <c r="M160" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160" s="8" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>2443</v>
       </c>
@@ -86442,8 +88369,11 @@
       <c r="M161" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" s="8" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>2042</v>
       </c>
@@ -86480,8 +88410,11 @@
       <c r="M162" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" s="8" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>2043</v>
       </c>
@@ -86518,8 +88451,11 @@
       <c r="M163" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163" s="8" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>2044</v>
       </c>
@@ -86556,8 +88492,11 @@
       <c r="M164" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" s="8" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>2045</v>
       </c>
@@ -86594,8 +88533,11 @@
       <c r="M165" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" s="8" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>2046</v>
       </c>
@@ -86632,8 +88574,11 @@
       <c r="M166" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" s="8" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>2047</v>
       </c>
@@ -86670,8 +88615,11 @@
       <c r="M167" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167" s="8" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>2048</v>
       </c>
@@ -86708,8 +88656,11 @@
       <c r="M168" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" s="8" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>2049</v>
       </c>
@@ -86746,8 +88697,11 @@
       <c r="M169" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169" s="8" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>2050</v>
       </c>
@@ -86784,8 +88738,11 @@
       <c r="M170" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" s="8" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>2051</v>
       </c>
@@ -86822,8 +88779,11 @@
       <c r="M171" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" s="8" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>2052</v>
       </c>
@@ -86860,8 +88820,11 @@
       <c r="M172" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" s="8" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>2053</v>
       </c>
@@ -86898,8 +88861,11 @@
       <c r="M173" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" s="8" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>2054</v>
       </c>
@@ -86936,8 +88902,11 @@
       <c r="M174" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" s="8" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>2055</v>
       </c>
@@ -86974,8 +88943,11 @@
       <c r="M175" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" s="8" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>2056</v>
       </c>
@@ -87012,8 +88984,11 @@
       <c r="M176" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" s="8" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>2057</v>
       </c>
@@ -87050,8 +89025,11 @@
       <c r="M177" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" s="8" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>2058</v>
       </c>
@@ -87088,8 +89066,11 @@
       <c r="M178" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" s="8" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>2059</v>
       </c>
@@ -87126,8 +89107,11 @@
       <c r="M179" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" s="8" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>2060</v>
       </c>
@@ -87164,8 +89148,11 @@
       <c r="M180" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" s="8" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>2061</v>
       </c>
@@ -87202,8 +89189,11 @@
       <c r="M181" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" s="8" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>2062</v>
       </c>
@@ -87240,8 +89230,11 @@
       <c r="M182" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" s="8" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>2063</v>
       </c>
@@ -87278,8 +89271,11 @@
       <c r="M183" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" s="8" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
         <v>2064</v>
       </c>
@@ -87316,8 +89312,11 @@
       <c r="M184" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" s="8" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
         <v>2065</v>
       </c>
@@ -87354,8 +89353,11 @@
       <c r="M185" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" s="8" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
         <v>2066</v>
       </c>
@@ -87392,8 +89394,11 @@
       <c r="M186" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186" s="8" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
         <v>2067</v>
       </c>
@@ -87430,8 +89435,11 @@
       <c r="M187" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187" s="8" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>2068</v>
       </c>
@@ -87468,8 +89476,11 @@
       <c r="M188" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188" s="8" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
         <v>2069</v>
       </c>
@@ -87506,8 +89517,11 @@
       <c r="M189" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" s="8" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>2070</v>
       </c>
@@ -87544,8 +89558,11 @@
       <c r="M190" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" s="8" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>2071</v>
       </c>
@@ -87582,8 +89599,11 @@
       <c r="M191" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191" s="8" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>2072</v>
       </c>
@@ -87620,8 +89640,11 @@
       <c r="M192" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" s="8" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
         <v>2073</v>
       </c>
@@ -87658,8 +89681,11 @@
       <c r="M193" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" s="8" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
         <v>2074</v>
       </c>
@@ -87696,8 +89722,11 @@
       <c r="M194" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" s="8" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
         <v>2075</v>
       </c>
@@ -87734,8 +89763,11 @@
       <c r="M195" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" s="8" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
         <v>2076</v>
       </c>
@@ -87772,8 +89804,11 @@
       <c r="M196" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" s="8" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
         <v>2077</v>
       </c>
@@ -87810,8 +89845,11 @@
       <c r="M197" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" s="8" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
         <v>2078</v>
       </c>
@@ -87848,8 +89886,11 @@
       <c r="M198" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" s="8" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
         <v>2079</v>
       </c>
@@ -87886,8 +89927,11 @@
       <c r="M199" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
         <v>2080</v>
       </c>
@@ -87924,8 +89968,11 @@
       <c r="M200" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" s="8" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
         <v>2081</v>
       </c>
@@ -87962,8 +90009,11 @@
       <c r="M201" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" s="8" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
         <v>2082</v>
       </c>
@@ -88000,8 +90050,11 @@
       <c r="M202" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" s="8" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
         <v>2083</v>
       </c>
@@ -88038,8 +90091,11 @@
       <c r="M203" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" s="8" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
         <v>2084</v>
       </c>
@@ -88076,8 +90132,11 @@
       <c r="M204" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" s="8" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
         <v>2085</v>
       </c>
@@ -88114,8 +90173,11 @@
       <c r="M205" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" s="8" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
         <v>2086</v>
       </c>
@@ -88152,8 +90214,11 @@
       <c r="M206" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" s="8" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
         <v>2087</v>
       </c>
@@ -88190,8 +90255,11 @@
       <c r="M207" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" s="8" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
         <v>2088</v>
       </c>
@@ -88228,8 +90296,11 @@
       <c r="M208" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" s="8" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>2089</v>
       </c>
@@ -88266,8 +90337,11 @@
       <c r="M209" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" s="8" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>2090</v>
       </c>
@@ -88304,8 +90378,11 @@
       <c r="M210" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" s="8" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>2091</v>
       </c>
@@ -88342,8 +90419,11 @@
       <c r="M211" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" s="8" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>2092</v>
       </c>
@@ -88380,8 +90460,11 @@
       <c r="M212" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" s="8" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
         <v>2093</v>
       </c>
@@ -88418,8 +90501,11 @@
       <c r="M213" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" s="8" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>2094</v>
       </c>
@@ -88456,8 +90542,11 @@
       <c r="M214" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214" s="8" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>2095</v>
       </c>
@@ -88494,8 +90583,11 @@
       <c r="M215" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" s="8" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>2096</v>
       </c>
@@ -88532,8 +90624,11 @@
       <c r="M216" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" s="8" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>2097</v>
       </c>
@@ -88570,8 +90665,11 @@
       <c r="M217" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217" s="8" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
         <v>2098</v>
       </c>
@@ -88608,8 +90706,11 @@
       <c r="M218" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" s="8" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" t="s">
         <v>2099</v>
       </c>
@@ -88646,8 +90747,11 @@
       <c r="M219" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" s="8" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
         <v>2100</v>
       </c>
@@ -88684,8 +90788,11 @@
       <c r="M220" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" s="8" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
         <v>2101</v>
       </c>
@@ -88722,8 +90829,11 @@
       <c r="M221" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" s="8" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
         <v>2102</v>
       </c>
@@ -88760,8 +90870,11 @@
       <c r="M222" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" s="8" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
         <v>2103</v>
       </c>
@@ -88798,8 +90911,11 @@
       <c r="M223" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" s="8" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>2104</v>
       </c>
@@ -88836,8 +90952,11 @@
       <c r="M224" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="8" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>2105</v>
       </c>
@@ -88874,8 +90993,11 @@
       <c r="M225" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="8" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>2106</v>
       </c>
@@ -88912,8 +91034,11 @@
       <c r="M226" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="8" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
         <v>2107</v>
       </c>
@@ -88950,8 +91075,11 @@
       <c r="M227" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="8" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
         <v>2108</v>
       </c>
@@ -88988,8 +91116,11 @@
       <c r="M228" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="8" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
         <v>2109</v>
       </c>
@@ -89026,8 +91157,11 @@
       <c r="M229" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="8" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" t="s">
         <v>2110</v>
       </c>
@@ -89064,8 +91198,11 @@
       <c r="M230" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="8" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
         <v>2111</v>
       </c>
@@ -89102,8 +91239,11 @@
       <c r="M231" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="8" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
         <v>2112</v>
       </c>
@@ -89140,8 +91280,11 @@
       <c r="M232" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" s="8" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
         <v>2113</v>
       </c>
@@ -89178,8 +91321,11 @@
       <c r="M233" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" s="8" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
         <v>2114</v>
       </c>
@@ -89216,8 +91362,11 @@
       <c r="M234" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" s="8" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
         <v>2115</v>
       </c>
@@ -89254,8 +91403,11 @@
       <c r="M235" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" s="8" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
         <v>2116</v>
       </c>
@@ -89292,8 +91444,11 @@
       <c r="M236" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" s="8" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
         <v>2117</v>
       </c>
@@ -89330,8 +91485,11 @@
       <c r="M237" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" s="8" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>2118</v>
       </c>
@@ -89368,8 +91526,11 @@
       <c r="M238" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238" s="8" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>2119</v>
       </c>
@@ -89406,8 +91567,11 @@
       <c r="M239" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239" s="8" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
         <v>2120</v>
       </c>
@@ -89444,8 +91608,11 @@
       <c r="M240" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" s="8" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
         <v>2121</v>
       </c>
@@ -89482,8 +91649,11 @@
       <c r="M241" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241" s="8" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
         <v>2122</v>
       </c>
@@ -89520,8 +91690,11 @@
       <c r="M242" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" s="8" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
         <v>2123</v>
       </c>
@@ -89558,8 +91731,11 @@
       <c r="M243" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" s="8" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" t="s">
         <v>2124</v>
       </c>
@@ -89596,8 +91772,11 @@
       <c r="M244" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" s="8" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" t="s">
         <v>2125</v>
       </c>
@@ -89634,8 +91813,11 @@
       <c r="M245" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" s="8" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" t="s">
         <v>2126</v>
       </c>
@@ -89672,8 +91854,11 @@
       <c r="M246" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" s="8" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" t="s">
         <v>2127</v>
       </c>
@@ -89710,8 +91895,11 @@
       <c r="M247" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" s="8" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" t="s">
         <v>2444</v>
       </c>
@@ -89748,8 +91936,11 @@
       <c r="M248" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" s="8" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" t="s">
         <v>2128</v>
       </c>
@@ -89786,8 +91977,11 @@
       <c r="M249" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" s="8" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
         <v>2129</v>
       </c>
@@ -89824,8 +92018,11 @@
       <c r="M250" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" s="8" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
         <v>2445</v>
       </c>
@@ -89862,8 +92059,11 @@
       <c r="M251" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" s="8" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
         <v>2446</v>
       </c>
@@ -89900,8 +92100,11 @@
       <c r="M252" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" s="8" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
         <v>2130</v>
       </c>
@@ -89938,8 +92141,11 @@
       <c r="M253" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" s="8" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
         <v>2131</v>
       </c>
@@ -89976,8 +92182,11 @@
       <c r="M254" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" s="8" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" t="s">
         <v>2132</v>
       </c>
@@ -90014,8 +92223,11 @@
       <c r="M255" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" s="8" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" t="s">
         <v>2133</v>
       </c>
@@ -90052,8 +92264,11 @@
       <c r="M256" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" s="8" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" t="s">
         <v>2134</v>
       </c>
@@ -90090,8 +92305,11 @@
       <c r="M257" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" s="8" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" t="s">
         <v>2135</v>
       </c>
@@ -90128,8 +92346,11 @@
       <c r="M258" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" s="8" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
         <v>2136</v>
       </c>
@@ -90166,8 +92387,11 @@
       <c r="M259" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" s="8" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" t="s">
         <v>2137</v>
       </c>
@@ -90204,8 +92428,11 @@
       <c r="M260" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260" s="8" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
         <v>2138</v>
       </c>
@@ -90242,8 +92469,11 @@
       <c r="M261" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" s="8" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
         <v>2447</v>
       </c>
@@ -90280,8 +92510,11 @@
       <c r="M262" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" s="8" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
         <v>2139</v>
       </c>
@@ -90318,8 +92551,11 @@
       <c r="M263" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="8" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
         <v>2140</v>
       </c>
@@ -90356,8 +92592,11 @@
       <c r="M264" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" s="8" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
         <v>2448</v>
       </c>
@@ -90394,8 +92633,11 @@
       <c r="M265" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265" s="8" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
         <v>2141</v>
       </c>
@@ -90432,8 +92674,11 @@
       <c r="M266" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" s="8" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
         <v>2142</v>
       </c>
@@ -90470,8 +92715,11 @@
       <c r="M267" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" s="8" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
         <v>2143</v>
       </c>
@@ -90508,8 +92756,11 @@
       <c r="M268" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" s="8" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
         <v>2144</v>
       </c>
@@ -90546,8 +92797,11 @@
       <c r="M269" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" s="8" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" t="s">
         <v>2145</v>
       </c>
@@ -90584,8 +92838,11 @@
       <c r="M270" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" s="8" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" t="s">
         <v>2146</v>
       </c>
@@ -90622,8 +92879,11 @@
       <c r="M271" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" s="8" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
         <v>2147</v>
       </c>
@@ -90660,8 +92920,11 @@
       <c r="M272" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" s="8" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
         <v>2148</v>
       </c>
@@ -90698,8 +92961,11 @@
       <c r="M273" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" s="8" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
         <v>2149</v>
       </c>
@@ -90736,8 +93002,11 @@
       <c r="M274" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" s="8" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
         <v>2150</v>
       </c>
@@ -90774,8 +93043,11 @@
       <c r="M275" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" s="8" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
         <v>2151</v>
       </c>
@@ -90812,8 +93084,11 @@
       <c r="M276" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" s="8" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" t="s">
         <v>2152</v>
       </c>
@@ -90850,8 +93125,11 @@
       <c r="M277" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" s="8" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" t="s">
         <v>2153</v>
       </c>
@@ -90888,8 +93166,11 @@
       <c r="M278" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" s="8" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" t="s">
         <v>2154</v>
       </c>
@@ -90926,8 +93207,11 @@
       <c r="M279" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279" s="8" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" t="s">
         <v>2155</v>
       </c>
@@ -90964,8 +93248,11 @@
       <c r="M280" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" s="8" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" t="s">
         <v>2156</v>
       </c>
@@ -91002,8 +93289,11 @@
       <c r="M281" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" s="8" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" t="s">
         <v>2157</v>
       </c>
@@ -91040,8 +93330,11 @@
       <c r="M282" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" s="8" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
         <v>2158</v>
       </c>
@@ -91078,8 +93371,11 @@
       <c r="M283" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283" s="8" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
         <v>2159</v>
       </c>
@@ -91116,8 +93412,11 @@
       <c r="M284" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" s="8" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
         <v>2160</v>
       </c>
@@ -91154,8 +93453,11 @@
       <c r="M285" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" s="8" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
         <v>2161</v>
       </c>
@@ -91192,8 +93494,11 @@
       <c r="M286" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" s="8" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
         <v>2162</v>
       </c>
@@ -91230,8 +93535,11 @@
       <c r="M287" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="8" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" t="s">
         <v>2163</v>
       </c>
@@ -91268,8 +93576,11 @@
       <c r="M288" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" s="8" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
         <v>2164</v>
       </c>
@@ -91306,8 +93617,11 @@
       <c r="M289" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" s="8" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
         <v>2165</v>
       </c>
@@ -91344,8 +93658,11 @@
       <c r="M290" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" s="8" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
         <v>2166</v>
       </c>
@@ -91382,8 +93699,11 @@
       <c r="M291" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" s="8" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
         <v>2167</v>
       </c>
@@ -91420,8 +93740,11 @@
       <c r="M292" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292" s="8" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
         <v>2168</v>
       </c>
@@ -91458,8 +93781,11 @@
       <c r="M293" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" s="8" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
         <v>2169</v>
       </c>
@@ -91496,8 +93822,11 @@
       <c r="M294" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" s="8" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
         <v>2170</v>
       </c>
@@ -91534,8 +93863,11 @@
       <c r="M295" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295" s="8" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
         <v>2171</v>
       </c>
@@ -91572,8 +93904,11 @@
       <c r="M296" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" s="8" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
         <v>2172</v>
       </c>
@@ -91610,8 +93945,11 @@
       <c r="M297" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" s="8" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
         <v>2173</v>
       </c>
@@ -91648,8 +93986,11 @@
       <c r="M298" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="N298" s="8" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
         <v>2174</v>
       </c>
@@ -91686,8 +94027,11 @@
       <c r="M299" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="N299" s="8" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
         <v>2175</v>
       </c>
@@ -91724,8 +94068,11 @@
       <c r="M300" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="N300" s="8" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
         <v>2176</v>
       </c>
@@ -91762,8 +94109,11 @@
       <c r="M301" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="N301" s="8" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" t="s">
         <v>2177</v>
       </c>
@@ -91800,8 +94150,11 @@
       <c r="M302" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="N302" s="8" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" t="s">
         <v>2178</v>
       </c>
@@ -91838,8 +94191,11 @@
       <c r="M303" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="N303" s="8" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" t="s">
         <v>2179</v>
       </c>
@@ -91876,8 +94232,11 @@
       <c r="M304" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="N304" s="8" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" t="s">
         <v>2180</v>
       </c>
@@ -91914,8 +94273,11 @@
       <c r="M305" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="N305" s="8" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" t="s">
         <v>2181</v>
       </c>
@@ -91952,8 +94314,11 @@
       <c r="M306" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="N306" s="8" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" t="s">
         <v>2182</v>
       </c>
@@ -91990,8 +94355,11 @@
       <c r="M307" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="N307" s="8" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" t="s">
         <v>2183</v>
       </c>
@@ -92028,8 +94396,11 @@
       <c r="M308" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="N308" s="8" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" t="s">
         <v>2184</v>
       </c>
@@ -92066,8 +94437,11 @@
       <c r="M309" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="N309" s="8" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" t="s">
         <v>2185</v>
       </c>
@@ -92104,8 +94478,11 @@
       <c r="M310" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="N310" s="8" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" t="s">
         <v>2186</v>
       </c>
@@ -92142,8 +94519,11 @@
       <c r="M311" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="N311" s="8" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" t="s">
         <v>2187</v>
       </c>
@@ -92180,8 +94560,11 @@
       <c r="M312" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="N312" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" t="s">
         <v>2188</v>
       </c>
@@ -92218,8 +94601,11 @@
       <c r="M313" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="N313" s="8" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" t="s">
         <v>2189</v>
       </c>
@@ -92256,8 +94642,11 @@
       <c r="M314" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="N314" s="8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" t="s">
         <v>2190</v>
       </c>
@@ -92294,8 +94683,11 @@
       <c r="M315" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="N315" s="8" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" t="s">
         <v>2191</v>
       </c>
@@ -92332,8 +94724,11 @@
       <c r="M316" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="N316" s="8" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" t="s">
         <v>2192</v>
       </c>
@@ -92370,8 +94765,11 @@
       <c r="M317" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="N317" s="8" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" t="s">
         <v>2193</v>
       </c>
@@ -92408,8 +94806,11 @@
       <c r="M318" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="N318" s="8" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" t="s">
         <v>2194</v>
       </c>
@@ -92446,8 +94847,11 @@
       <c r="M319" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="N319" s="8" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" t="s">
         <v>2195</v>
       </c>
@@ -92484,8 +94888,11 @@
       <c r="M320" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="N320" s="8" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" t="s">
         <v>2196</v>
       </c>
@@ -92522,8 +94929,11 @@
       <c r="M321" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="N321" s="8" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" t="s">
         <v>2197</v>
       </c>
@@ -92560,8 +94970,11 @@
       <c r="M322" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="323" spans="1:13">
+      <c r="N322" s="8" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" t="s">
         <v>2198</v>
       </c>
@@ -92598,8 +95011,11 @@
       <c r="M323" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="N323" s="8" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" t="s">
         <v>2199</v>
       </c>
@@ -92636,8 +95052,11 @@
       <c r="M324" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="N324" s="8" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" t="s">
         <v>2200</v>
       </c>
@@ -92674,8 +95093,11 @@
       <c r="M325" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="N325" s="8" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" t="s">
         <v>2201</v>
       </c>
@@ -92712,8 +95134,11 @@
       <c r="M326" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="N326" s="8" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" t="s">
         <v>2383</v>
       </c>
@@ -92750,8 +95175,11 @@
       <c r="M327" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="N327" s="8" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" t="s">
         <v>2202</v>
       </c>
@@ -92788,8 +95216,11 @@
       <c r="M328" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="N328" s="8" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" t="s">
         <v>2203</v>
       </c>
@@ -92826,8 +95257,11 @@
       <c r="M329" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="N329" s="8" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" t="s">
         <v>2204</v>
       </c>
@@ -92864,8 +95298,11 @@
       <c r="M330" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="N330" s="8" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" t="s">
         <v>2205</v>
       </c>
@@ -92902,8 +95339,11 @@
       <c r="M331" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="N331" s="8" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" t="s">
         <v>2206</v>
       </c>
@@ -92940,8 +95380,11 @@
       <c r="M332" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="N332" s="8" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" t="s">
         <v>2207</v>
       </c>
@@ -92978,8 +95421,11 @@
       <c r="M333" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="N333" s="8" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" t="s">
         <v>2208</v>
       </c>
@@ -93016,8 +95462,11 @@
       <c r="M334" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="N334" s="8" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" t="s">
         <v>2209</v>
       </c>
@@ -93054,8 +95503,11 @@
       <c r="M335" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="336" spans="1:13">
+      <c r="N335" s="8" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336" t="s">
         <v>2210</v>
       </c>
@@ -93092,8 +95544,11 @@
       <c r="M336" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="337" spans="1:13">
+      <c r="N336" s="8" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337" t="s">
         <v>2211</v>
       </c>
@@ -93130,8 +95585,11 @@
       <c r="M337" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="338" spans="1:13">
+      <c r="N337" s="8" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338" t="s">
         <v>2212</v>
       </c>
@@ -93168,8 +95626,11 @@
       <c r="M338" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="339" spans="1:13">
+      <c r="N338" s="8" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339" t="s">
         <v>2213</v>
       </c>
@@ -93206,8 +95667,11 @@
       <c r="M339" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="340" spans="1:13">
+      <c r="N339" s="8" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340" t="s">
         <v>2382</v>
       </c>
@@ -93244,8 +95708,11 @@
       <c r="M340" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="341" spans="1:13">
+      <c r="N340" s="8" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341" t="s">
         <v>2214</v>
       </c>
@@ -93282,8 +95749,11 @@
       <c r="M341" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="342" spans="1:13">
+      <c r="N341" s="8" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" t="s">
         <v>2215</v>
       </c>
@@ -93320,8 +95790,11 @@
       <c r="M342" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="343" spans="1:13">
+      <c r="N342" s="8" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343" t="s">
         <v>2216</v>
       </c>
@@ -93358,8 +95831,11 @@
       <c r="M343" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="344" spans="1:13">
+      <c r="N343" s="8" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344" t="s">
         <v>2217</v>
       </c>
@@ -93396,8 +95872,11 @@
       <c r="M344" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="345" spans="1:13">
+      <c r="N344" s="8" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345" t="s">
         <v>2218</v>
       </c>
@@ -93434,8 +95913,11 @@
       <c r="M345" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="346" spans="1:13">
+      <c r="N345" s="8" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346" t="s">
         <v>2219</v>
       </c>
@@ -93472,8 +95954,11 @@
       <c r="M346" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="347" spans="1:13">
+      <c r="N346" s="8" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347" t="s">
         <v>2220</v>
       </c>
@@ -93510,8 +95995,11 @@
       <c r="M347" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="348" spans="1:13">
+      <c r="N347" s="8" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348" t="s">
         <v>2221</v>
       </c>
@@ -93548,8 +96036,11 @@
       <c r="M348" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="349" spans="1:13">
+      <c r="N348" s="8" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349" t="s">
         <v>2222</v>
       </c>
@@ -93586,8 +96077,11 @@
       <c r="M349" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="350" spans="1:13">
+      <c r="N349" s="8" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350" t="s">
         <v>2223</v>
       </c>
@@ -93624,8 +96118,11 @@
       <c r="M350" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="351" spans="1:13">
+      <c r="N350" s="8" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351" t="s">
         <v>2224</v>
       </c>
@@ -93662,8 +96159,11 @@
       <c r="M351" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="352" spans="1:13">
+      <c r="N351" s="8" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352" t="s">
         <v>2225</v>
       </c>
@@ -93700,8 +96200,11 @@
       <c r="M352" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="353" spans="1:13">
+      <c r="N352" s="8" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353" t="s">
         <v>2226</v>
       </c>
@@ -93738,8 +96241,11 @@
       <c r="M353" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="354" spans="1:13">
+      <c r="N353" s="8" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" t="s">
         <v>2227</v>
       </c>
@@ -93776,8 +96282,11 @@
       <c r="M354" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="355" spans="1:13">
+      <c r="N354" s="8" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355" t="s">
         <v>2228</v>
       </c>
@@ -93814,8 +96323,11 @@
       <c r="M355" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="356" spans="1:13">
+      <c r="N355" s="8" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" t="s">
         <v>2229</v>
       </c>
@@ -93852,8 +96364,11 @@
       <c r="M356" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="357" spans="1:13">
+      <c r="N356" s="8" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357" t="s">
         <v>2230</v>
       </c>
@@ -93890,8 +96405,11 @@
       <c r="M357" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="358" spans="1:13">
+      <c r="N357" s="8" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358" t="s">
         <v>2231</v>
       </c>
@@ -93928,8 +96446,11 @@
       <c r="M358" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="359" spans="1:13">
+      <c r="N358" s="8" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359" t="s">
         <v>2232</v>
       </c>
@@ -93966,8 +96487,11 @@
       <c r="M359" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="360" spans="1:13">
+      <c r="N359" s="8" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360" t="s">
         <v>2233</v>
       </c>
@@ -94004,8 +96528,11 @@
       <c r="M360" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="361" spans="1:13">
+      <c r="N360" s="8" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361" t="s">
         <v>2449</v>
       </c>
@@ -94042,8 +96569,11 @@
       <c r="M361" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="362" spans="1:13">
+      <c r="N361" s="8" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362" t="s">
         <v>2234</v>
       </c>
@@ -94080,8 +96610,11 @@
       <c r="M362" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="363" spans="1:13">
+      <c r="N362" s="8" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363" t="s">
         <v>2235</v>
       </c>
@@ -94118,8 +96651,11 @@
       <c r="M363" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="364" spans="1:13">
+      <c r="N363" s="8" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364" t="s">
         <v>2236</v>
       </c>
@@ -94156,8 +96692,11 @@
       <c r="M364" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="365" spans="1:13">
+      <c r="N364" s="8" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365" t="s">
         <v>2237</v>
       </c>
@@ -94194,8 +96733,11 @@
       <c r="M365" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="366" spans="1:13">
+      <c r="N365" s="8" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366" t="s">
         <v>2238</v>
       </c>
@@ -94232,8 +96774,11 @@
       <c r="M366" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="367" spans="1:13">
+      <c r="N366" s="8" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367" t="s">
         <v>2239</v>
       </c>
@@ -94270,8 +96815,11 @@
       <c r="M367" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="368" spans="1:13">
+      <c r="N367" s="8" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368" t="s">
         <v>2240</v>
       </c>
@@ -94308,8 +96856,11 @@
       <c r="M368" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="369" spans="1:13">
+      <c r="N368" s="8" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369" t="s">
         <v>2450</v>
       </c>
@@ -94346,8 +96897,11 @@
       <c r="M369" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="370" spans="1:13">
+      <c r="N369" s="8" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" t="s">
         <v>2241</v>
       </c>
@@ -94384,8 +96938,11 @@
       <c r="M370" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="371" spans="1:13">
+      <c r="N370" s="8" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371" t="s">
         <v>2451</v>
       </c>
@@ -94422,8 +96979,11 @@
       <c r="M371" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="372" spans="1:13">
+      <c r="N371" s="8" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372" t="s">
         <v>2242</v>
       </c>
@@ -94460,8 +97020,11 @@
       <c r="M372" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="373" spans="1:13">
+      <c r="N372" s="8" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373" t="s">
         <v>2243</v>
       </c>
@@ -94498,8 +97061,11 @@
       <c r="M373" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="374" spans="1:13">
+      <c r="N373" s="8" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374" t="s">
         <v>2244</v>
       </c>
@@ -94536,8 +97102,11 @@
       <c r="M374" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="375" spans="1:13">
+      <c r="N374" s="8" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375" t="s">
         <v>2245</v>
       </c>
@@ -94574,8 +97143,11 @@
       <c r="M375" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="376" spans="1:13">
+      <c r="N375" s="8" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376" t="s">
         <v>2246</v>
       </c>
@@ -94612,8 +97184,11 @@
       <c r="M376" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="377" spans="1:13">
+      <c r="N376" s="8" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377" t="s">
         <v>2247</v>
       </c>
@@ -94650,8 +97225,11 @@
       <c r="M377" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="378" spans="1:13">
+      <c r="N377" s="8" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378" t="s">
         <v>2248</v>
       </c>
@@ -94688,8 +97266,11 @@
       <c r="M378" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="379" spans="1:13">
+      <c r="N378" s="8" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379" t="s">
         <v>2249</v>
       </c>
@@ -94726,8 +97307,11 @@
       <c r="M379" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="380" spans="1:13">
+      <c r="N379" s="8" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380" t="s">
         <v>2250</v>
       </c>
@@ -94764,8 +97348,11 @@
       <c r="M380" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="381" spans="1:13">
+      <c r="N380" s="8" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381" t="s">
         <v>2251</v>
       </c>
@@ -94802,8 +97389,11 @@
       <c r="M381" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="382" spans="1:13">
+      <c r="N381" s="8" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382" t="s">
         <v>2252</v>
       </c>
@@ -94840,8 +97430,11 @@
       <c r="M382" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="383" spans="1:13">
+      <c r="N382" s="8" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383" t="s">
         <v>2253</v>
       </c>
@@ -94878,8 +97471,11 @@
       <c r="M383" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="384" spans="1:13">
+      <c r="N383" s="8" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384" t="s">
         <v>2452</v>
       </c>
@@ -94916,8 +97512,11 @@
       <c r="M384" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="385" spans="1:13">
+      <c r="N384" s="8" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" t="s">
         <v>2254</v>
       </c>
@@ -94954,8 +97553,11 @@
       <c r="M385" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="386" spans="1:13">
+      <c r="N385" s="8" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
       <c r="A386" t="s">
         <v>2255</v>
       </c>
@@ -94992,8 +97594,11 @@
       <c r="M386" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="387" spans="1:13">
+      <c r="N386" s="8" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
       <c r="A387" t="s">
         <v>2256</v>
       </c>
@@ -95030,8 +97635,11 @@
       <c r="M387" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="388" spans="1:13">
+      <c r="N387" s="8" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
       <c r="A388" t="s">
         <v>2257</v>
       </c>
@@ -95068,8 +97676,11 @@
       <c r="M388" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="389" spans="1:13">
+      <c r="N388" s="8" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
       <c r="A389" t="s">
         <v>2258</v>
       </c>
@@ -95106,8 +97717,11 @@
       <c r="M389" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="390" spans="1:13">
+      <c r="N389" s="8" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
       <c r="A390" t="s">
         <v>2259</v>
       </c>
@@ -95144,8 +97758,11 @@
       <c r="M390" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="391" spans="1:13">
+      <c r="N390" s="8" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
       <c r="A391" t="s">
         <v>2260</v>
       </c>
@@ -95182,8 +97799,11 @@
       <c r="M391" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="392" spans="1:13">
+      <c r="N391" s="8" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
       <c r="A392" t="s">
         <v>2261</v>
       </c>
@@ -95220,8 +97840,11 @@
       <c r="M392" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="393" spans="1:13">
+      <c r="N392" s="8" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
       <c r="A393" t="s">
         <v>2262</v>
       </c>
@@ -95258,8 +97881,11 @@
       <c r="M393" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="394" spans="1:13">
+      <c r="N393" s="8" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
       <c r="A394" t="s">
         <v>2263</v>
       </c>
@@ -95296,8 +97922,11 @@
       <c r="M394" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="395" spans="1:13">
+      <c r="N394" s="8" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
       <c r="A395" t="s">
         <v>2264</v>
       </c>
@@ -95334,8 +97963,11 @@
       <c r="M395" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="396" spans="1:13">
+      <c r="N395" s="8" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
       <c r="A396" t="s">
         <v>2265</v>
       </c>
@@ -95372,8 +98004,11 @@
       <c r="M396" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="397" spans="1:13">
+      <c r="N396" s="8" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
       <c r="A397" t="s">
         <v>2453</v>
       </c>
@@ -95410,8 +98045,11 @@
       <c r="M397" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="398" spans="1:13">
+      <c r="N397" s="8" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
       <c r="A398" t="s">
         <v>2266</v>
       </c>
@@ -95448,8 +98086,11 @@
       <c r="M398" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="399" spans="1:13">
+      <c r="N398" s="8" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
       <c r="A399" t="s">
         <v>2267</v>
       </c>
@@ -95486,8 +98127,11 @@
       <c r="M399" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="400" spans="1:13">
+      <c r="N399" s="8" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
       <c r="A400" t="s">
         <v>2268</v>
       </c>
@@ -95524,8 +98168,11 @@
       <c r="M400" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="401" spans="1:13">
+      <c r="N400" s="8" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
       <c r="A401" t="s">
         <v>2269</v>
       </c>
@@ -95562,8 +98209,11 @@
       <c r="M401" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="402" spans="1:13">
+      <c r="N401" s="8" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
       <c r="A402" t="s">
         <v>2270</v>
       </c>
@@ -95600,8 +98250,11 @@
       <c r="M402" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="403" spans="1:13">
+      <c r="N402" s="8" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
       <c r="A403" t="s">
         <v>2271</v>
       </c>
@@ -95638,8 +98291,11 @@
       <c r="M403" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="404" spans="1:13">
+      <c r="N403" s="8" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14">
       <c r="A404" t="s">
         <v>2272</v>
       </c>
@@ -95676,8 +98332,11 @@
       <c r="M404" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="405" spans="1:13">
+      <c r="N404" s="8" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14">
       <c r="A405" t="s">
         <v>2273</v>
       </c>
@@ -95714,8 +98373,11 @@
       <c r="M405" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="406" spans="1:13">
+      <c r="N405" s="8" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14">
       <c r="A406" t="s">
         <v>2454</v>
       </c>
@@ -95752,8 +98414,11 @@
       <c r="M406" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="407" spans="1:13">
+      <c r="N406" s="8" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14">
       <c r="A407" t="s">
         <v>2274</v>
       </c>
@@ -95790,8 +98455,11 @@
       <c r="M407" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="408" spans="1:13">
+      <c r="N407" s="8" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14">
       <c r="A408" t="s">
         <v>2275</v>
       </c>
@@ -95828,8 +98496,11 @@
       <c r="M408" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="409" spans="1:13">
+      <c r="N408" s="8" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14">
       <c r="A409" t="s">
         <v>2276</v>
       </c>
@@ -95866,8 +98537,11 @@
       <c r="M409" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="410" spans="1:13">
+      <c r="N409" s="8" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14">
       <c r="A410" t="s">
         <v>2277</v>
       </c>
@@ -95904,8 +98578,11 @@
       <c r="M410" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="411" spans="1:13">
+      <c r="N410" s="8" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14">
       <c r="A411" t="s">
         <v>2278</v>
       </c>
@@ -95942,8 +98619,11 @@
       <c r="M411" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="412" spans="1:13">
+      <c r="N411" s="8" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14">
       <c r="A412" t="s">
         <v>2279</v>
       </c>
@@ -95980,8 +98660,11 @@
       <c r="M412" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="413" spans="1:13">
+      <c r="N412" s="8" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14">
       <c r="A413" t="s">
         <v>2280</v>
       </c>
@@ -96018,8 +98701,11 @@
       <c r="M413" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="414" spans="1:13">
+      <c r="N413" s="8" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
       <c r="A414" t="s">
         <v>2281</v>
       </c>
@@ -96056,8 +98742,11 @@
       <c r="M414" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="415" spans="1:13">
+      <c r="N414" s="8" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14">
       <c r="A415" t="s">
         <v>2282</v>
       </c>
@@ -96094,8 +98783,11 @@
       <c r="M415" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="416" spans="1:13">
+      <c r="N415" s="8" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14">
       <c r="A416" t="s">
         <v>2455</v>
       </c>
@@ -96132,8 +98824,11 @@
       <c r="M416" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="417" spans="1:13">
+      <c r="N416" s="8" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14">
       <c r="A417" t="s">
         <v>2283</v>
       </c>
@@ -96170,8 +98865,11 @@
       <c r="M417" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="418" spans="1:13">
+      <c r="N417" s="8" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14">
       <c r="A418" t="s">
         <v>2284</v>
       </c>
@@ -96208,8 +98906,11 @@
       <c r="M418" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="419" spans="1:13">
+      <c r="N418" s="8" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
       <c r="A419" t="s">
         <v>2285</v>
       </c>
@@ -96246,8 +98947,11 @@
       <c r="M419" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="420" spans="1:13">
+      <c r="N419" s="8" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14">
       <c r="A420" t="s">
         <v>2456</v>
       </c>
@@ -96284,8 +98988,11 @@
       <c r="M420" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="421" spans="1:13">
+      <c r="N420" s="8" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
       <c r="A421" t="s">
         <v>2457</v>
       </c>
@@ -96322,8 +99029,11 @@
       <c r="M421" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="422" spans="1:13">
+      <c r="N421" s="8" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14">
       <c r="A422" t="s">
         <v>2286</v>
       </c>
@@ -96360,8 +99070,11 @@
       <c r="M422" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="423" spans="1:13">
+      <c r="N422" s="8" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14">
       <c r="A423" t="s">
         <v>2287</v>
       </c>
@@ -96398,8 +99111,11 @@
       <c r="M423" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="424" spans="1:13">
+      <c r="N423" s="8" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14">
       <c r="A424" t="s">
         <v>2288</v>
       </c>
@@ -96436,8 +99152,11 @@
       <c r="M424" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="425" spans="1:13">
+      <c r="N424" s="8" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14">
       <c r="A425" t="s">
         <v>2289</v>
       </c>
@@ -96474,8 +99193,11 @@
       <c r="M425" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="426" spans="1:13">
+      <c r="N425" s="8" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14">
       <c r="A426" t="s">
         <v>2458</v>
       </c>
@@ -96512,8 +99234,11 @@
       <c r="M426" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="427" spans="1:13">
+      <c r="N426" s="8" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14">
       <c r="A427" t="s">
         <v>2290</v>
       </c>
@@ -96550,8 +99275,11 @@
       <c r="M427" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="428" spans="1:13">
+      <c r="N427" s="8" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
       <c r="A428" t="s">
         <v>2291</v>
       </c>
@@ -96588,8 +99316,11 @@
       <c r="M428" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="429" spans="1:13">
+      <c r="N428" s="8" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14">
       <c r="A429" t="s">
         <v>2292</v>
       </c>
@@ -96626,8 +99357,11 @@
       <c r="M429" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="430" spans="1:13">
+      <c r="N429" s="8" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14">
       <c r="A430" t="s">
         <v>2459</v>
       </c>
@@ -96664,8 +99398,11 @@
       <c r="M430" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="431" spans="1:13">
+      <c r="N430" s="8" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14">
       <c r="A431" t="s">
         <v>2293</v>
       </c>
@@ -96702,8 +99439,11 @@
       <c r="M431" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="432" spans="1:13">
+      <c r="N431" s="8" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
       <c r="A432" t="s">
         <v>2294</v>
       </c>
@@ -96740,8 +99480,11 @@
       <c r="M432" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="433" spans="1:13">
+      <c r="N432" s="8" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
       <c r="A433" t="s">
         <v>2295</v>
       </c>
@@ -96778,8 +99521,11 @@
       <c r="M433" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="434" spans="1:13">
+      <c r="N433" s="8" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
       <c r="A434" t="s">
         <v>2296</v>
       </c>
@@ -96816,8 +99562,11 @@
       <c r="M434" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="435" spans="1:13">
+      <c r="N434" s="8" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
       <c r="A435" t="s">
         <v>2460</v>
       </c>
@@ -96854,8 +99603,11 @@
       <c r="M435" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="436" spans="1:13">
+      <c r="N435" s="8" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14">
       <c r="A436" t="s">
         <v>2461</v>
       </c>
@@ -96892,8 +99644,11 @@
       <c r="M436" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="437" spans="1:13">
+      <c r="N436" s="8" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
       <c r="A437" t="s">
         <v>2297</v>
       </c>
@@ -96930,8 +99685,11 @@
       <c r="M437" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="438" spans="1:13">
+      <c r="N437" s="8" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
       <c r="A438" t="s">
         <v>2298</v>
       </c>
@@ -96968,8 +99726,11 @@
       <c r="M438" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="439" spans="1:13">
+      <c r="N438" s="8" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
       <c r="A439" t="s">
         <v>2462</v>
       </c>
@@ -97006,8 +99767,11 @@
       <c r="M439" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="440" spans="1:13">
+      <c r="N439" s="8" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
       <c r="A440" t="s">
         <v>2299</v>
       </c>
@@ -97044,8 +99808,11 @@
       <c r="M440" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="441" spans="1:13">
+      <c r="N440" s="8" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14">
       <c r="A441" t="s">
         <v>2300</v>
       </c>
@@ -97082,8 +99849,11 @@
       <c r="M441" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="442" spans="1:13">
+      <c r="N441" s="8" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14">
       <c r="A442" t="s">
         <v>2301</v>
       </c>
@@ -97120,8 +99890,11 @@
       <c r="M442" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="443" spans="1:13">
+      <c r="N442" s="8" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
       <c r="A443" t="s">
         <v>2302</v>
       </c>
@@ -97158,8 +99931,11 @@
       <c r="M443" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="444" spans="1:13">
+      <c r="N443" s="8" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14">
       <c r="A444" t="s">
         <v>2303</v>
       </c>
@@ -97196,8 +99972,11 @@
       <c r="M444" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="445" spans="1:13">
+      <c r="N444" s="8" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
       <c r="A445" t="s">
         <v>2304</v>
       </c>
@@ -97234,8 +100013,11 @@
       <c r="M445" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="446" spans="1:13">
+      <c r="N445" s="8" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
       <c r="A446" t="s">
         <v>2305</v>
       </c>
@@ -97272,8 +100054,11 @@
       <c r="M446" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="447" spans="1:13">
+      <c r="N446" s="8" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14">
       <c r="A447" t="s">
         <v>2306</v>
       </c>
@@ -97310,8 +100095,11 @@
       <c r="M447" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="448" spans="1:13">
+      <c r="N447" s="8" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14">
       <c r="A448" t="s">
         <v>2307</v>
       </c>
@@ -97348,8 +100136,11 @@
       <c r="M448" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="449" spans="1:13">
+      <c r="N448" s="8" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
       <c r="A449" t="s">
         <v>2308</v>
       </c>
@@ -97386,8 +100177,11 @@
       <c r="M449" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="450" spans="1:13">
+      <c r="N449" s="8" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14">
       <c r="A450" t="s">
         <v>2309</v>
       </c>
@@ -97424,8 +100218,11 @@
       <c r="M450" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="451" spans="1:13">
+      <c r="N450" s="8" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14">
       <c r="A451" t="s">
         <v>2310</v>
       </c>
@@ -97462,8 +100259,11 @@
       <c r="M451" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="452" spans="1:13">
+      <c r="N451" s="8" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
       <c r="A452" t="s">
         <v>2311</v>
       </c>
@@ -97500,8 +100300,11 @@
       <c r="M452" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="453" spans="1:13">
+      <c r="N452" s="8" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
       <c r="A453" t="s">
         <v>2312</v>
       </c>
@@ -97538,8 +100341,11 @@
       <c r="M453" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="454" spans="1:13">
+      <c r="N453" s="8" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
       <c r="A454" t="s">
         <v>2313</v>
       </c>
@@ -97576,8 +100382,11 @@
       <c r="M454" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="455" spans="1:13">
+      <c r="N454" s="8" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
       <c r="A455" t="s">
         <v>2314</v>
       </c>
@@ -97614,8 +100423,11 @@
       <c r="M455" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="456" spans="1:13">
+      <c r="N455" s="8" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
       <c r="A456" t="s">
         <v>2315</v>
       </c>
@@ -97652,8 +100464,11 @@
       <c r="M456" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="457" spans="1:13">
+      <c r="N456" s="8" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
       <c r="A457" t="s">
         <v>2316</v>
       </c>
@@ -97690,8 +100505,11 @@
       <c r="M457" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="458" spans="1:13">
+      <c r="N457" s="8" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
       <c r="A458" t="s">
         <v>2317</v>
       </c>
@@ -97728,8 +100546,11 @@
       <c r="M458" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="459" spans="1:13">
+      <c r="N458" s="8" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
       <c r="A459" t="s">
         <v>2318</v>
       </c>
@@ -97766,8 +100587,11 @@
       <c r="M459" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="460" spans="1:13">
+      <c r="N459" s="8" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
       <c r="A460" t="s">
         <v>2319</v>
       </c>
@@ -97804,8 +100628,11 @@
       <c r="M460" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="461" spans="1:13">
+      <c r="N460" s="8" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
       <c r="A461" t="s">
         <v>2320</v>
       </c>
@@ -97842,8 +100669,11 @@
       <c r="M461" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="462" spans="1:13">
+      <c r="N461" s="8" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14">
       <c r="A462" t="s">
         <v>2321</v>
       </c>
@@ -97880,8 +100710,11 @@
       <c r="M462" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="463" spans="1:13">
+      <c r="N462" s="8" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
       <c r="A463" t="s">
         <v>2322</v>
       </c>
@@ -97918,8 +100751,11 @@
       <c r="M463" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="464" spans="1:13">
+      <c r="N463" s="8" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
       <c r="A464" t="s">
         <v>2323</v>
       </c>
@@ -97956,8 +100792,11 @@
       <c r="M464" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="465" spans="1:13">
+      <c r="N464" s="8" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
       <c r="A465" t="s">
         <v>2324</v>
       </c>
@@ -97994,8 +100833,11 @@
       <c r="M465" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="466" spans="1:13">
+      <c r="N465" s="8" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14">
       <c r="A466" t="s">
         <v>2325</v>
       </c>
@@ -98032,8 +100874,11 @@
       <c r="M466" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="467" spans="1:13">
+      <c r="N466" s="8" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
       <c r="A467" t="s">
         <v>2326</v>
       </c>
@@ -98070,8 +100915,11 @@
       <c r="M467" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="468" spans="1:13">
+      <c r="N467" s="8" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
       <c r="A468" t="s">
         <v>2327</v>
       </c>
@@ -98108,8 +100956,11 @@
       <c r="M468" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="469" spans="1:13">
+      <c r="N468" s="8" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
       <c r="A469" t="s">
         <v>2328</v>
       </c>
@@ -98146,8 +100997,11 @@
       <c r="M469" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="470" spans="1:13">
+      <c r="N469" s="8" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
       <c r="A470" t="s">
         <v>2329</v>
       </c>
@@ -98184,8 +101038,11 @@
       <c r="M470" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="471" spans="1:13">
+      <c r="N470" s="8" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14">
       <c r="A471" t="s">
         <v>2330</v>
       </c>
@@ -98222,8 +101079,11 @@
       <c r="M471" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="472" spans="1:13">
+      <c r="N471" s="8" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
       <c r="A472" t="s">
         <v>2331</v>
       </c>
@@ -98260,8 +101120,11 @@
       <c r="M472" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="473" spans="1:13">
+      <c r="N472" s="8" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
       <c r="A473" t="s">
         <v>2332</v>
       </c>
@@ -98298,8 +101161,11 @@
       <c r="M473" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="474" spans="1:13">
+      <c r="N473" s="8" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
       <c r="A474" t="s">
         <v>2333</v>
       </c>
@@ -98336,8 +101202,11 @@
       <c r="M474" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="475" spans="1:13">
+      <c r="N474" s="8" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
       <c r="A475" t="s">
         <v>2334</v>
       </c>
@@ -98374,8 +101243,11 @@
       <c r="M475" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="476" spans="1:13">
+      <c r="N475" s="8" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
       <c r="A476" t="s">
         <v>2335</v>
       </c>
@@ -98412,9 +101284,17 @@
       <c r="M476" t="s">
         <v>2484</v>
       </c>
+      <c r="N476" s="8" t="s">
+        <v>2962</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y476" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{198FA38A-3605-414E-97B3-A23B3005BF97}"/>
+    <hyperlink ref="N3:N476" r:id="rId2" display="https://img.freepik.com/foto-gratis/deliciosa-comida-vietnamita-que-incluye-pho-ga-fideos-rollitos-primavera-mesa-blanca_181624-34062.jpg?size=626&amp;ext=jpg&amp;ga=GA1.2.1683082823.1629158400" xr:uid="{0860ADB4-132F-423D-8350-2082654CCC1B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
